--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_3_urine.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_3_urine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A229A2F1-B840-40A7-8078-0023D0F86FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35BFAC0-A584-43AC-A584-8F106A2228FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,12 +322,6 @@
     <t>Select the district</t>
   </si>
   <si>
-    <t>u_location</t>
-  </si>
-  <si>
-    <t>Select the location</t>
-  </si>
-  <si>
     <t>mw_sch_sth_impact_202404_3_urine</t>
   </si>
   <si>
@@ -335,6 +329,12 @@
   </si>
   <si>
     <t>mw_sch_sth_u_202404</t>
+  </si>
+  <si>
+    <t>u_school</t>
+  </si>
+  <si>
+    <t>Select the school</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1036,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>60</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>39</v>

--- a/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_3_urine.xlsx
+++ b/SCH-STH/Impact assessments/Malawi/mw_sch_sth_impact_202404_3_urine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Malawi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35BFAC0-A584-43AC-A584-8F106A2228FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A7BBB-A3E2-4875-BEB1-7B9842F3EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -322,19 +322,19 @@
     <t>Select the district</t>
   </si>
   <si>
-    <t>mw_sch_sth_impact_202404_3_urine</t>
-  </si>
-  <si>
-    <t>(2024 Apr) - 3. SCH/STH – Urine Form</t>
-  </si>
-  <si>
-    <t>mw_sch_sth_u_202404</t>
-  </si>
-  <si>
     <t>u_school</t>
   </si>
   <si>
     <t>Select the school</t>
+  </si>
+  <si>
+    <t>mw_sch_sth_ia_202404_3_urine_v2</t>
+  </si>
+  <si>
+    <t>(2024 Apr) - 3. SCH/STH – Urine Form V2</t>
+  </si>
+  <si>
+    <t>mw_sch_sth_u_202404_v2</t>
   </si>
 </sst>
 </file>
@@ -920,13 +920,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="28" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="28" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="8" customWidth="1"/>
@@ -1036,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>60</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>39</v>
